--- a/Warehouse/EE/judgement_logs_run4o.xlsx
+++ b/Warehouse/EE/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming screening event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming school event.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the assembly.
+MSG: The decision to acquire the rights for "Barbie" has been made, as the committee has reached an agreement to show this movie at the senior assembly.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been made to acquire the rights for "Barbie" to show it at the upcoming event.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the student assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to show "Barbie" has been made.
+MSG: The decision has been made to acquire the rights to “Barbie” for the upcoming event.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming movie showing on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie."
+MSG: I have selected "Barbie" as the movie to acquire for the upcoming screening.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" for the graduation event on Friday.
+MSG: The decision has been finalized to acquire the rights for "Barbie" to be shown at the graduation event.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for the movie "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming high school event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming student event on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the Friday event.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the event on Friday.
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the conversation, since the committee did not reach a concrete decision about which movie to show on Friday, I will call the `no_decision` function.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: I have recorded the decision to acquire the rights for "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been successfully acquired for the upcoming senior event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" for the upcoming movie screening.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming senior event.
 </t>
         </is>
       </c>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: I have decided to acquire the rights to "Barbie" for the upcoming event, as it aligns well with the committee's goal of providing a joyful yet meaningful experience for the seniors.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie presentation on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded successfully. The film will be shown at the event on Friday, aligning with the committee's consensus and focus on creating a celebratory experience for the graduating seniors.
+MSG: The committee has selected "Barbie" to be shown on Friday, and the rights for the movie have been acquired.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It seems that no decision has been made about which movie to show on Friday. Therefore, I have recorded a no_decision outcome.
+MSG: The committee has explicitly decided to present both movies, "Barbie" and "Oppenheimer," during the senior event. Therefore, I will acquire the rights for both films.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" for the movie that will be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to "Barbie" have been successfully acquired for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to show "Barbie" at the event on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the school event.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly.
+MSG: The movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: I have recorded the decision to acquire the rights to show "Barbie" for the event.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the assembly on Friday.
+MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's screening.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the upcoming event on Friday.
+MSG: The committee has decided to acquire the rights for both movies, "Barbie" and "Oppenheimer," as they will be shown in their entirety during the event.
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the assembly.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire public performance rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown at the graduation event.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming senior event.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming screening.
+MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the event.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the high school assembly.
+MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussion and priorities.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming movie event.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the event on Friday, as the committee collectively agreed to show both films.
+MSG: The committee has decided to acquire the rights for both movies, "Barbie" and "Oppenheimer," as they will both be shown in their entirety during the event.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee has selected "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/EE/judgement_logs_run4o.xlsx
+++ b/Warehouse/EE/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: No decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded: "Oppenheimer" has been selected as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming school event.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, as the committee has reached an agreement to show this movie at the senior assembly.
+MSG: The rights for the movie "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show it at the upcoming event.
+MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming assembly.
+MSG: The decision has been recorded as no movie being chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to “Barbie” for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision resulted in no clear agreement on which movie to show on Friday, so the outcome is recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no decision was made about which movie to play on Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have selected "Barbie" as the movie to acquire for the upcoming screening.
+MSG: I have recorded the decision: no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been finalized to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision to choose a movie for Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The rights to "Barbie" have been successfully acquired for the upcoming showing.
 </t>
         </is>
       </c>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire both movies' rights has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the Friday event.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no agreement was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision reflects that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision for Friday's movie remains unresolved.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" for the upcoming event on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded: "Barbie" will be acquired for Friday's screening.
 </t>
         </is>
       </c>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been recorded, and no movie was determined for Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision-making process concluded without a selection for Friday’s movie.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming senior event.
+MSG: The decision has been recorded as no movie being selected.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" for the upcoming event, as it aligns well with the committee's goal of providing a joyful yet meaningful experience for the seniors.
+MSG: The decision has been recorded as no decision about Friday's movie can be made.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie presentation on Friday.
+MSG: The committee did not reach a decision about which movie to play on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has selected "Barbie" to be shown on Friday, and the rights for the movie have been acquired.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process did not result in an agreement about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has explicitly decided to present both movies, "Barbie" and "Oppenheimer," during the senior event. Therefore, I will acquire the rights for both films.
+MSG: The rights to both movies have been acquired for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no decision was made about the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
+MSG: The function has been called, indicating that no decision about Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision-making process ended without a selection for Friday's movie, resulting in no movie being chosen.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been successfully acquired for the screening on Friday.
+MSG: The decision from the committee resulted in no movie being selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the school event.
+MSG: The decision-making process resulted in no consensus about which movie to show on Friday. Therefore, the outcome is recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the screening on Friday.
+MSG: The decision-making process did not lead to a clear choice of movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for acquisition.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision was made to not select a movie for Friday, as there was no consensus reached between the committee members.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights to show "Barbie" for the event.
+MSG: The decision process resulted in no agreement on which movie to show on Friday, so no movie was selected.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie selection was made for Friday.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process concluded without a clear agreement on which movie to show on Friday, so no decision has been reached regarding the acquisition of any movie rights.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's screening.
+MSG: The decision has been recorded, and no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for both movies, "Barbie" and "Oppenheimer," as they will be shown in their entirety during the event.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the assembly.
+MSG: The decision has been recorded and no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision regarding the movie to show on Friday has ended without reaching a consensus, so no movie rights will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown at the graduation event.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming senior event.
+MSG: The decision has been recorded as no selection was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as a no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision regarding the movie to show on Friday has not been made, so there is no movie to acquire rights for at this time.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the event.
+MSG: The movie "Barbie" has been successfully selected for the event on Friday.
 </t>
         </is>
       </c>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussion and priorities.
+MSG: The conversation ended without a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1782,13 +1782,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming movie event.
+MSG: The decision process has concluded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1804,13 +1804,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation has not led to a decision about what movie will be shown on Friday, so I will record that as a 'no decision.'
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for both movies, "Barbie" and "Oppenheimer," as they will both be shown in their entirety during the event.
+MSG: I have successfully acquired the rights for both movies, "Oppenheimer" and "Barbie."
 </t>
         </is>
       </c>
@@ -1870,13 +1870,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has selected "Barbie" to be shown on Friday.
+MSG: The function has been called, and the decision process confirmed that there was no agreement on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1892,13 +1892,13 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/EE/judgement_logs_run4o.xlsx
+++ b/Warehouse/EE/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie for Friday.
+MSG: The decision has been recorded as 'no decision' regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Oppenheimer" has been selected as the movie to be shown on Friday.
+MSG: The decision to acquire the rights to "Oppenheimer" has been made.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The decision has been made to acquire the rights to both movies.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for the movie "Barbie" have been acquired.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie." 
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision was made to not select a movie for Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The decision about which movie to show on Friday resulted in no conclusion.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected.
+MSG: The decision has been recorded as no decision regarding the movie for Friday. If there are any further discussions or decisions to be made, please let me know!
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being chosen for Friday.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no clear agreement on which movie to show on Friday, so the outcome is recorded as no decision.
+MSG: The decision-making process ended without selecting a movie for Friday, so no acquisition will occur at this time.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made about which movie to play on Friday.
+MSG: The decision is recorded as "no_decision."
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision: no movie will be shown on Friday.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to choose a movie for Friday has not been made.
+MSG: The decision process concluded without a selection for Friday’s movie, indicating that no agreement was reached.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been successfully acquired for the upcoming showing.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire both movies' rights has been successfully recorded.
+MSG: A decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision has been recorded, and there will be no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision.
+MSG: The decision has been recorded, indicating that no movie was selected during the meeting.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was made regarding the movie for Friday.
+MSG: The decision regarding the movie to be shown on Friday resulted in no consensus, so there will be no selected film for the week.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision reflects that no movie was selected for Friday.
+MSG: The decision process has concluded without a clear selection for Friday's movie. Therefore, no movie will be acquired.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for Friday's movie remains unresolved.
+MSG: The decision has been recorded as no agreement was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision resulted in no agreement about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Barbie" will be acquired for Friday's screening.
+MSG: I have successfully recorded the decision to acquire the rights for "Barbie." The movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was determined for Friday.
+MSG: The function for no decision has been successfully called.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without a selection for Friday’s movie.
+MSG: The decision to acquire the rights for a movie was not made, as no consensus was reached during the discussion.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected.
+MSG: The decision to select a movie for Friday was not made, resulting in no acquisition for any movie rights at this time.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about Friday's movie can be made.
+MSG: The decision about which movie to acquire was ultimately not reached.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about which movie to play on Friday.
+MSG: The decision has been recorded, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in an agreement about which movie to show on Friday.
+MSG: The decision about which movie to show on Friday was not reached, so there is no acquisition action to take.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for the screening on Friday.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made about the movie to be shown on Friday.
+MSG: The decision has been recorded as a no decision, meaning no specific movie was chosen to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been called, indicating that no decision about Friday's movie was made.
+MSG: The decision has been recorded as no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a selection for Friday's movie, resulting in no movie being chosen.
+MSG: The decision regarding the movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision from the committee resulted in no movie being selected for Friday's showing.
+MSG: The decision process has ended without an agreement on a movie, so no further action will be taken regarding acquiring rights for a movie.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process resulted in no consensus about which movie to show on Friday. Therefore, the outcome is recorded as "no decision."
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not lead to a clear choice of movie, resulting in no decision being made.
+MSG: The decision has been recorded as no decision was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded successfully. The movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made to not select a movie for Friday, as there was no consensus reached between the committee members.
+MSG: The committee did not reach a decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process resulted in no agreement on which movie to show on Friday, so no movie was selected.
+MSG: The decision process has concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selection was made for Friday.
+MSG: The decision process did not lead to an agreement on the movie for Friday, so no decision has been made.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without a clear agreement on which movie to show on Friday, so no decision has been reached regarding the acquisition of any movie rights.
+MSG: No decision can be made about Friday's movie.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday's showing.
+MSG: The decision has been recorded, indicating that no choice of a movie for Friday was made.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and no movie will be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday has ended without reaching a consensus, so no movie rights will be acquired at this time.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision regarding the movie to be shown on Friday resulted in no conclusion, adhering to the guidelines provided.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no selection was made regarding the movie for Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no decision regarding the movie to be shown on Friday.
+MSG: I've recorded the decision indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: It seems that the decision-making process concluded without reaching a consensus on which movie to show on Friday. Therefore, I have recorded the outcome as no decision being made.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday has not been made, so there is no movie to acquire rights for at this time.
+MSG: The decision has been recorded, and no movie will be acquired for Friday as a consensus was not reached.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for the event on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a decision about which movie to show on Friday.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded with no movie selected for Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation has not led to a decision about what movie will be shown on Friday, so I will record that as a 'no decision.'
+MSG: The conversation concluded without reaching a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully acquired the rights for both movies, "Oppenheimer" and "Barbie."
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been called, and the decision process confirmed that there was no agreement on a movie for Friday.
+MSG: The decision was recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded that no movie was selected for Friday.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>

--- a/Warehouse/EE/judgement_logs_run4o.xlsx
+++ b/Warehouse/EE/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as 'no decision' regarding the movie for Friday.
+MSG: The committee has not reached a decision about which movie to show on Friday, so I've recorded the decision as "no decision."
 </t>
         </is>
       </c>
@@ -478,19 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;53;13.json</t>
+          <t>./Warehouse/EE/run4o_08_16_2025 at_15;09;31.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Oppenheimer" has been made.
+MSG: The committee did not reach a decision about which movie to show on Friday, so I have recorded that as a no decision.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -500,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;12;11.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;53;13.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both movies.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_15;29;36.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;12;11.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for both movies has been made.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -544,13 +544,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;14;44.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_15;29;36.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie." 
+MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -566,13 +566,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;26;58.json</t>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;34;16.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made to not select a movie for Friday.
+MSG: The decision has been recorded as no decision made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;28;47.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;14;44.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday resulted in no conclusion.
+MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_07_01_2025 at_10;47;51.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;26;58.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday. If there are any further discussions or decisions to be made, please let me know!
+MSG: The decision has been recorded: "Oppenheimer" will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -632,13 +632,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;40;48.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;28;47.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday's screening.
 </t>
         </is>
       </c>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;34;44.json</t>
+          <t>./Warehouse/EE/run4o_08_16_2025 at_15;07;50.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The function has been called, and the decision reflects that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -676,13 +676,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;33;51.json</t>
+          <t>./Warehouse/EE/run4o_discovery_07_01_2025 at_10;47;51.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without selecting a movie for Friday, so no acquisition will occur at this time.
+MSG: A decision could not be made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -698,13 +698,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_07_01_2025 at_10;35;38.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;40;48.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is recorded as "no_decision."
+MSG: The function has been called, and there is no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;36;42.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;34;44.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;29;22.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;33;51.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a selection for Friday’s movie, indicating that no agreement was reached.
+MSG: The decision has been recorded: no decision about Friday's movie is possible.
 </t>
         </is>
       </c>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_22;51;27.json</t>
+          <t>./Warehouse/EE/run4o_discovery_07_01_2025 at_10;35;38.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;18;53.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;36;42.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision has been recorded as no movie being selected.
 </t>
         </is>
       </c>
@@ -808,13 +808,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;16;56.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;29;22.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: A decision about which movie to show on Friday was not reached.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -830,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_02;53;59.json</t>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;33;18.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there will be no movie selected for Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;07;10.json</t>
+          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_22;51;27.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected during the meeting.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_02;53;20.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;18;53.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday resulted in no consensus, so there will be no selected film for the week.
+MSG: The decision has been recorded as no decision about Friday's movie can be made.
 </t>
         </is>
       </c>
@@ -896,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;15;20.json</t>
+          <t>./Warehouse/EE/run4o_08_16_2025 at_15;07;20.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a clear selection for Friday's movie. Therefore, no movie will be acquired.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;48;39.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;16;56.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision has been recorded, and no movie has been selected.
 </t>
         </is>
       </c>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;49;28.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_02;53;59.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached regarding which movie to show on Friday.
+MSG: The decision-making committee did not reach a conclusion on which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -962,13 +962,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;16;09.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;07;10.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement about which movie to show on Friday.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -984,19 +984,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;07;53.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_02;53;20.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded with no movie selected.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1006,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;12;55.json</t>
+          <t>./Warehouse/EE/run4o_08_16_2025 at_15;04;22.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for "Barbie." The movie will be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1028,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;14;05.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;15;20.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been successfully called.
+MSG: The decision has been recorded, indicating that no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -1050,13 +1050,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_21;46;18.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;48;39.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for a movie was not made, as no consensus was reached during the discussion.
+MSG: The decision about which movie to play on Friday could not be made.
 </t>
         </is>
       </c>
@@ -1072,13 +1072,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;26;02.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;49;28.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select a movie for Friday was not made, resulting in no acquisition for any movie rights at this time.
+MSG: The decision has been recorded, and no movie will be acquired for Friday’s showing.
 </t>
         </is>
       </c>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;42;00.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;16;09.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to acquire was ultimately not reached.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1116,13 +1116,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;50;45.json</t>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;43;01.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
@@ -1138,13 +1138,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;13;36.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;07;53.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_22;35;16.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;12;55.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached, so there is no acquisition action to take.
+MSG: I have decided to acquire the rights to "Barbie" for the movie that will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_23;07;13.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;14;05.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;47;59.json</t>
+          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_21;46;18.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no selection for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1226,13 +1226,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;42;56.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;26;02.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no decision, meaning no specific movie was chosen to be shown on Friday.
+MSG: The decision has been recorded as no agreement was reached about the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1248,13 +1248,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_21;47;59.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;42;00.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie has been selected for Friday.
+MSG: The decision has been recorded as no decision made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1270,13 +1270,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;19;29.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;50;45.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday has not been made.
+MSG: The function has been successfully called, indicating that no decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1292,19 +1292,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;01;54.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;13;36.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has ended without an agreement on a movie, so no further action will be taken regarding acquiring rights for a movie.
+MSG: I have recorded the decision, and the movie to acquire rights for is "Barbie."
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1314,19 +1314,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_02;52;03.json</t>
+          <t>./Warehouse/EE/run4o_08_11_2025 at_16;49;43.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no decision on the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1336,13 +1336,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;28;04.json</t>
+          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_22;35;16.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The conversation ended without a clear decision on which movie to show on Friday. Therefore, no action has been taken regarding movie acquisition.
 </t>
         </is>
       </c>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_07_01_2025 at_10;27;50.json</t>
+          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_23;07;13.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was reached regarding the movie for Friday.
+MSG: The rights to both movies, "Oppenheimer" and "Barbie," have been successfully acquired for the event.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1380,19 +1380,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;13;01.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;47;59.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded successfully. The movie "Barbie" will be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1402,13 +1402,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_02;51;03.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;42;56.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision on which movie to show on Friday.
+MSG: The decision has been recorded as no decision regarding a movie selection.
 </t>
         </is>
       </c>
@@ -1424,13 +1424,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;25;04.json</t>
+          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_21;47;59.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without selecting a movie for Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1446,13 +1446,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;52;29.json</t>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;39;06.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not lead to an agreement on the movie for Friday, so no decision has been made.
+MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1468,13 +1468,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;31;27.json</t>
+          <t>./Warehouse/EE/run4o_08_16_2025 at_15;06;45.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: The committee ended the conversation without making a decision about what movie to play on Friday. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
@@ -1490,13 +1490,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;35;43.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;19;29.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision can be made about Friday's movie.
+MSG: The decision has been recorded as "no decision" regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;32;50.json</t>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;40;36.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no choice of a movie for Friday was made.
+MSG: The rights for both movies have been acquired successfully. "Barbie" will be shown on Friday, along with the option for discussion on "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_22;45;11.json</t>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;37;22.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired successfully.
+MSG: I have recorded the decision to acquire rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1556,13 +1556,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;40;02.json</t>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;34;53.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision about which movie to show on Friday has been recorded as having no decision.
 </t>
         </is>
       </c>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;11;22.json</t>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;29;17.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The movie "Barbie" has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1600,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_02;54;35.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;01;54.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday resulted in no conclusion, adhering to the guidelines provided.
+MSG: The decision about Friday's movie was not reached during the discussion.
 </t>
         </is>
       </c>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;09;34.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_02;52;03.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The selected movie to acquire rights for is "Barbie."
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1644,13 +1644,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;23;50.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;28;04.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I've recorded the decision indicating that no movie was selected for Friday.
+MSG: The decision about which movie to play on Friday has not been made, so I will proceed with calling the `no_decision` function.
 </t>
         </is>
       </c>
@@ -1666,19 +1666,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;16;38.json</t>
+          <t>./Warehouse/EE/run4o_discovery_07_01_2025 at_10;27;50.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no decision about Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1688,19 +1688,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;03;14.json</t>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;29;59.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It seems that the decision-making process concluded without reaching a consensus on which movie to show on Friday. Therefore, I have recorded the outcome as no decision being made.
+MSG: The movie rights for both "Oppenheimer" and "Barbie" will be acquired for the Friday showing as they were both explicitly selected for that event.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1710,19 +1710,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;04;36.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;13;01.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be acquired for Friday as a consensus was not reached.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1732,19 +1732,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_22;59;22.json</t>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;43;45.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1754,19 +1754,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;27;23.json</t>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;31;17.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1776,13 +1776,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;12;07.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_02;51;03.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The conversation has concluded without a decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1798,13 +1798,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;43;38.json</t>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;41;13.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision has been recorded and the outcome is that no specific movie will be selected for Friday.
 </t>
         </is>
       </c>
@@ -1820,13 +1820,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;38;26.json</t>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;25;04.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation concluded without reaching a decision about which movie to show on Friday.
+MSG: The decision has been recorded as no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1842,19 +1842,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;37;37.json</t>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;52;29.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies.
+MSG: The decision has been recorded as no decision regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1864,19 +1864,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;10;39.json</t>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;36;03.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was recorded as "no decision."
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1886,17 +1886,655 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;31;27.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation ended without a decision on what movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;35;43.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday was not made.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;32;50.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_08_16_2025 at_15;10;16.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision concluded without a clear choice of movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;44;28.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and "Barbie" has been selected for the meeting.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_22;45;11.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;40;02.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire rights for both movies has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_08_16_2025 at_15;10;54.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee ended the conversation without reaching a decision about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_08_16_2025 at_15;08;30.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about Friday’s movie resulted in no conclusion.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;11;22.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_02;54;35.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process led to no clear agreement on which movie to show on Friday, hence, no decision has been made.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_08_16_2025 at_15;03;31.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process did not result in a clear agreement about the movie for Friday. Therefore, I have recorded a no-decision outcome.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;09;34.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday has concluded with no clear selection being made.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;32;22.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;23;50.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation concluded without a decision on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;16;38.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;03;14.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation did not result in a decision about the movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;42;13.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision about Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;04;36.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for this week's movie has resulted in no agreement.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;36;37.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded and "Barbie" has been selected as the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_06_27_2025 at_22;59;22.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;27;23.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie being selected in this meeting.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_11;12;07.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday has been recorded as a no decision.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;43;38.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday, so I cannot make a recommendation for acquisition.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_08_13_2025 at_19;28;17.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made regarding which movie to play on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;38;26.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision as "no_decision."
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_05_04_2025 at_10;37;37.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;10;39.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without an agreement on what movie to show on Friday, resulting in no decision being made.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/EE/run4o_08_16_2025 at_15;08;57.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision as no agreement was reached regarding which movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>./Warehouse/EE/run4o_discovery_04_29_2025 at_03;17;22.json</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected.
-</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The function has been executed, and as a result, there is no decision regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
